--- a/tests/AppBundle/Resources/sample_data/sort_data.xlsx
+++ b/tests/AppBundle/Resources/sample_data/sort_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,6 +40,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -99,8 +100,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -129,71 +134,71 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>12.321</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>14.392</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
+        <v>14.392</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>12.321</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="0" t="n">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>28.134</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="n">
         <v>14.392</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>12.321</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>14.392</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>28.134</v>
       </c>
     </row>
   </sheetData>
